--- a/Data/Data_org.xlsx
+++ b/Data/Data_org.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JJH\Desktop\JaeHak\2024\Eng_study\ESMP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01690580-FE5F-440A-9258-5440756576F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8884598-328C-4141-9AAA-B1B7AD83CD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188A3D87-8DF3-4CCE-8B22-0C1F95238E12}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{188A3D87-8DF3-4CCE-8B22-0C1F95238E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>I take it back.</t>
   </si>
@@ -33,18 +33,6 @@
     <t>I think so.</t>
   </si>
   <si>
-    <t>I’ll be in touch.</t>
-  </si>
-  <si>
-    <t>I’ll be there soon.</t>
-  </si>
-  <si>
-    <t>I’m not following.</t>
-  </si>
-  <si>
-    <t>I don’t get it</t>
-  </si>
-  <si>
     <t>I gotta go.</t>
   </si>
   <si>
@@ -81,21 +69,9 @@
     <t>Thank God.</t>
   </si>
   <si>
-    <t>That’s pretty much it.</t>
-  </si>
-  <si>
-    <t>That’s bullshit.</t>
-  </si>
-  <si>
-    <t>That’s random.</t>
-  </si>
-  <si>
     <t>There you go.</t>
   </si>
   <si>
-    <t>Time’s up</t>
-  </si>
-  <si>
     <t>Told ya.</t>
   </si>
   <si>
@@ -108,12 +84,6 @@
     <t>We cool?</t>
   </si>
   <si>
-    <t>We’re almost there.</t>
-  </si>
-  <si>
-    <t>We’re on the same page.</t>
-  </si>
-  <si>
     <t>What a small world.</t>
   </si>
   <si>
@@ -129,9 +99,6 @@
     <t>No way!</t>
   </si>
   <si>
-    <t>No, I’m good.</t>
-  </si>
-  <si>
     <t>Not necessarily.</t>
   </si>
   <si>
@@ -150,9 +117,6 @@
     <t>Sleep tight.</t>
   </si>
   <si>
-    <t>It’s on me.</t>
-  </si>
-  <si>
     <t>Jinx!</t>
   </si>
   <si>
@@ -177,21 +141,9 @@
     <t>My bad.</t>
   </si>
   <si>
-    <t>I’m on my way.</t>
-  </si>
-  <si>
-    <t>I’m working on it.</t>
-  </si>
-  <si>
-    <t>I’m done.</t>
-  </si>
-  <si>
     <t>I’m home.</t>
   </si>
   <si>
-    <t>I’m off.</t>
-  </si>
-  <si>
     <t>Is everything OK?</t>
   </si>
   <si>
@@ -201,12 +153,6 @@
     <t>It makes sense.</t>
   </si>
   <si>
-    <t>It’s not that big a deal.</t>
-  </si>
-  <si>
-    <t>It’s not my thing.</t>
-  </si>
-  <si>
     <t>Hang in there.</t>
   </si>
   <si>
@@ -231,18 +177,9 @@
     <t>I appreciate it.</t>
   </si>
   <si>
-    <t>I didn’t mean it.</t>
-  </si>
-  <si>
     <t>What do you say?</t>
   </si>
   <si>
-    <t>What’s going on?</t>
-  </si>
-  <si>
-    <t>What’s the matter?</t>
-  </si>
-  <si>
     <t>Where were we?</t>
   </si>
   <si>
@@ -261,9 +198,6 @@
     <t>You bet.</t>
   </si>
   <si>
-    <t>You’re the best.</t>
-  </si>
-  <si>
     <t>영어문장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,6 +447,199 @@
   </si>
   <si>
     <t>Just so you know…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's bullshit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll be in touch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll be there soon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not following.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't get it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's pretty much it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's random.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time's up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We're almost there.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We're on the same page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, I'm good.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm on my way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm working on it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's on me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm done.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's not that big a deal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's not my thing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn't mean it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's going on?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the matter?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're the best.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I love going to Rome.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently, I went to Kyoto.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As soon as I land, I just feel joy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When I went to Tokyo,
+that was completely mind blowing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로마에 가는 걸 좋아해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착하자마자 행복해졌어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도쿄에 갔을 때는 정말 감동이었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근에 도쿄에 갔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't go wrong with water.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물을 마시는 것은 언제나 옳은 선택이죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am the type of person who love soccer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 축구를 좋아하는 사람입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I remember going to visit my grandmother.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm big on tennis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 테니스에 관심이 많아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할머니를 보러 갔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The physical comedy makes me so happy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸개그 덕분에 행복해져요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you currently obsessed with these days?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 빠져 지내는 것이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I try to do it every day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 하려고 노력하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what's something that you always carry with you on tour?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투어다닐 때 항상 챙겨 가지고 다니는 것이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit me up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락 주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,12 +692,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,24 +1016,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F22CCAE-B5C8-4F7D-B463-E54C6575DCA7}">
-  <dimension ref="C3:D83"/>
+  <dimension ref="C3:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
@@ -911,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
@@ -919,631 +1049,735 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
